--- a/canteen/Август(10_8).xlsx
+++ b/canteen/Август(10_8).xlsx
@@ -19,22 +19,22 @@
     <t>День</t>
   </si>
   <si>
+    <t>Евгений Михеев</t>
+  </si>
+  <si>
     <t>🔥 Daniil Mihey 🔥</t>
   </si>
   <si>
-    <t>Евгений Михеев</t>
-  </si>
-  <si>
     <t>Еда</t>
   </si>
   <si>
     <t>Цена</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>курица</t>
